--- a/data/users_enriched.xlsx
+++ b/data/users_enriched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beld\Documents\GitHub\code-master-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D67ECAF-1AC6-4C1F-931D-DF1F34AFFBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED32FB-2C9E-4A98-BFDD-71D481EEDBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13295" uniqueCount="10590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13296" uniqueCount="10591">
   <si>
     <t>user_id</t>
   </si>
@@ -31888,6 +31888,9 @@
   </si>
   <si>
     <t>Collected via profile pages, therefore must be an employee</t>
+  </si>
+  <si>
+    <t>Can still be retrieved by API but does not work at UU anymore</t>
   </si>
 </sst>
 </file>
@@ -32252,9 +32255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI92" sqref="AI92"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO313" sqref="AO313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66106,8 +66109,8 @@
       <c r="AN313">
         <v>1</v>
       </c>
-      <c r="AO313">
-        <v>0</v>
+      <c r="AO313" t="s">
+        <v>10590</v>
       </c>
     </row>
     <row r="314" spans="1:41" x14ac:dyDescent="0.25">
